--- a/pyCGM2/Settings/jointPatterns/Nieuwenhuys2017-fr.xlsx
+++ b/pyCGM2/Settings/jointPatterns/Nieuwenhuys2017-fr.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="438">
   <si>
     <t>Plan</t>
   </si>
@@ -1338,6 +1338,111 @@
   </si>
   <si>
     <t>Rotation interne de la hanche droite excessive durant le cycle de marche</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>augmentation de la flexion du genou droit en milieu d appui accompagnée d un moment interne flechisseur</t>
+  </si>
+  <si>
+    <t>augmentation de la flexion du genou droit en milieu d appui accompagnée d un moment interne extenseur</t>
+  </si>
+  <si>
+    <t>augmentation de la flexion du genou gauche en milieu d appui accompagnée d un moment interne flechisseur</t>
+  </si>
+  <si>
+    <t>augmentation de la flexion du genou gauche en milieu d appui accompagnée d un moment interne extenseur</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1715,7 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1899,19 +2004,28 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4486,1769 +4600,2033 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" style="22" customWidth="1"/>
-    <col min="2" max="3" width="15" style="22" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="102.5546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="43.44140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="69.77734375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="44.77734375" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="52.109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="22" customWidth="1"/>
+    <col min="3" max="4" width="15" style="22" customWidth="1"/>
+    <col min="5" max="5" width="52.109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="102.5546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="69.77734375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="44.77734375" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="103" t="s">
+      <c r="D2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="102" t="s">
         <v>328</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="38"/>
       <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="104" t="s">
+      <c r="D3" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="105" t="s">
+      <c r="D4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="104" t="s">
         <v>330</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="105" t="s">
+      <c r="D5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="104" t="s">
         <v>331</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="105" t="s">
+      <c r="D6" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="104" t="s">
         <v>332</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="83" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="105" t="s">
+      <c r="D7" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="104" t="s">
         <v>333</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="G7" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="103" t="s">
+      <c r="D8" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="102" t="s">
         <v>334</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="38"/>
+      <c r="I8" s="38" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+    <row r="9" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="104" t="s">
+      <c r="D9" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="H9" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="99" t="s">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="83" t="s">
+        <v>405</v>
+      </c>
+      <c r="B10" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="C10" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="106" t="s">
+      <c r="D10" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="89"/>
+      <c r="F10" s="105" t="s">
         <v>336</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="G10" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="G10" s="89" t="s">
+      <c r="H10" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="89"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="99" t="s">
+      <c r="I10" s="89"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="B11" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="F11" s="102" t="s">
         <v>337</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="38"/>
+      <c r="I11" s="38" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="99" t="s">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="F12" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="G12" s="50" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="99" t="s">
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="104" t="s">
+      <c r="F13" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="G13" s="50" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="99" t="s">
+    <row r="14" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="C14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="F14" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="G14" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="H14" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="99" t="s">
+    <row r="15" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="F15" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="G15" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="H15" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="99" t="s">
+    <row r="16" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="105"/>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="104" t="s">
+        <v>436</v>
+      </c>
+      <c r="G16" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="H16" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="99" t="s">
+    <row r="17" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="C17" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="104" t="s">
+        <v>437</v>
+      </c>
+      <c r="G17" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="93" t="s">
+      <c r="H17" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="93"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="99" t="s">
+      <c r="I17" s="93"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="C18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="F18" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="G18" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="G18" s="38"/>
       <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="99" t="s">
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="C19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="104" t="s">
+      <c r="F19" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="G19" s="51" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99" t="s">
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="F20" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="G20" s="51" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="99" t="s">
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="C21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="104" t="s">
+      <c r="F21" s="103" t="s">
         <v>345</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="G21" s="51" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="99" t="s">
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="F22" s="103" t="s">
         <v>346</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="G22" s="51" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="99" t="s">
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="104" t="s">
+      <c r="F23" s="103" t="s">
         <v>347</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="G23" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="89"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="99" t="s">
+      <c r="H23" s="23"/>
+      <c r="I23" s="89"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="C24" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="104" t="s">
+      <c r="F24" s="103" t="s">
         <v>348</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="G24" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="G24" s="38"/>
       <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="99" t="s">
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="C25" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="F25" s="103" t="s">
         <v>349</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="G25" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="H25" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="99" t="s">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="C26" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="104" t="s">
+      <c r="F26" s="103" t="s">
         <v>350</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="G26" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="H26" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="99" t="s">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="C27" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="104" t="s">
+      <c r="F27" s="103" t="s">
         <v>351</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="G27" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="H27" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="99" t="s">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="C28" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="104" t="s">
+      <c r="F28" s="103" t="s">
         <v>352</v>
       </c>
-      <c r="F28" s="95" t="s">
+      <c r="G28" s="95" t="s">
         <v>195</v>
       </c>
-      <c r="G28" s="93" t="s">
+      <c r="H28" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="93"/>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="99" t="s">
+      <c r="I28" s="93"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="C29" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="104" t="s">
+      <c r="F29" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="G29" s="32" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="99" t="s">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="C30" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="104" t="s">
+      <c r="F30" s="103" t="s">
         <v>354</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="G30" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="H30" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="99" t="s">
+    <row r="31" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="104" t="s">
+      <c r="F31" s="103" t="s">
         <v>355</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="G31" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="H31" s="22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="99" t="s">
+    <row r="32" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="C32" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="104" t="s">
+      <c r="F32" s="103" t="s">
         <v>356</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="G32" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="66" t="s">
+      <c r="H32" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="66"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="100" t="s">
+      <c r="I32" s="66"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="C33" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="104" t="s">
+      <c r="F33" s="103" t="s">
         <v>357</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="G33" s="38" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="100" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="108" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="C34" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="104" t="s">
+      <c r="F34" s="103" t="s">
         <v>358</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="G34" s="22" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="100" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="108" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="C35" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="104" t="s">
+      <c r="F35" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="G35" s="22" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="100" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="C36" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="104" t="s">
+      <c r="F36" s="103" t="s">
         <v>360</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="G36" s="22" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="100" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="108" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="C37" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="104" t="s">
+      <c r="D37" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="G37" s="38" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="100" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="C38" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="104" t="s">
+      <c r="F38" s="103" t="s">
         <v>362</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="G38" s="51" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="100" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="C39" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="104" t="s">
+      <c r="D39" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="G39" s="22" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="100" t="s">
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="C40" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="66"/>
-      <c r="E40" s="104" t="s">
+      <c r="D40" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="103" t="s">
         <v>364</v>
       </c>
-      <c r="F40" s="66" t="s">
+      <c r="G40" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="G40" s="66"/>
       <c r="H40" s="66"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="101" t="s">
+      <c r="I40" s="66"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="C41" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="104" t="s">
+      <c r="F41" s="103" t="s">
         <v>365</v>
       </c>
-      <c r="F41" s="76" t="s">
+      <c r="G41" s="76" t="s">
         <v>268</v>
       </c>
-      <c r="G41" s="83"/>
       <c r="H41" s="83"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="101" t="s">
+      <c r="I41" s="83"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="C42" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="104" t="s">
+      <c r="F42" s="103" t="s">
         <v>366</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="G42" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="G42" s="65"/>
-      <c r="H42" s="83"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="101" t="s">
+      <c r="H42" s="65"/>
+      <c r="I42" s="83"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="C43" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="104" t="s">
+      <c r="F43" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="G43" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G43" s="83"/>
       <c r="H43" s="83"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="101" t="s">
+      <c r="I43" s="83"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="C44" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="104" t="s">
+      <c r="F44" s="103" t="s">
         <v>368</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="G44" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="83"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="101" t="s">
+      <c r="H44" s="65"/>
+      <c r="I44" s="83"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="C45" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="104" t="s">
+      <c r="D45" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="103" t="s">
         <v>369</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="G45" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="G45" s="65"/>
-      <c r="H45" s="83"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="101" t="s">
+      <c r="H45" s="65"/>
+      <c r="I45" s="83"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="C46" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="104" t="s">
+      <c r="D46" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="103" t="s">
         <v>370</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="G46" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G46" s="65"/>
-      <c r="H46" s="83"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="101" t="s">
+      <c r="H46" s="65"/>
+      <c r="I46" s="83"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="C47" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="104" t="s">
+      <c r="D47" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="103" t="s">
         <v>371</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="G47" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="G47" s="65"/>
-      <c r="H47" s="83"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="101" t="s">
+      <c r="H47" s="65"/>
+      <c r="I47" s="83"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="C48" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C48" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="104" t="s">
+      <c r="F48" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="G48" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="G48" s="65"/>
-      <c r="H48" s="83"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="101" t="s">
+      <c r="H48" s="65"/>
+      <c r="I48" s="83"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="C49" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="104" t="s">
+      <c r="F49" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="G49" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="G49" s="63" t="s">
+      <c r="H49" s="63" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="101" t="s">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="B50" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="C50" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="C50" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="104" t="s">
+      <c r="F50" s="103" t="s">
         <v>374</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="G50" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="G50" s="69" t="s">
+      <c r="H50" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="H50" s="66"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="99" t="s">
+      <c r="I50" s="66"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="C51" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="81" t="s">
+      <c r="D51" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="E51" s="103" t="s">
+      <c r="F51" s="102" t="s">
         <v>334</v>
       </c>
-      <c r="F51" s="38" t="s">
+      <c r="G51" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38" t="s">
+      <c r="H51" s="38"/>
+      <c r="I51" s="38" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="99" t="s">
+    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="C52" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="81" t="s">
+      <c r="D52" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="E52" s="104" t="s">
+      <c r="F52" s="103" t="s">
         <v>375</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="G52" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="H52" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="99" t="s">
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="C53" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="81" t="s">
+      <c r="D53" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="E53" s="106" t="s">
+      <c r="F53" s="105" t="s">
         <v>376</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="G53" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="H53" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="99" t="s">
+    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="84" t="s">
+        <v>282</v>
+      </c>
+      <c r="B54" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="C54" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="81" t="s">
+      <c r="D54" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D54" s="84" t="s">
+      <c r="E54" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="E54" s="103" t="s">
+      <c r="F54" s="102" t="s">
         <v>377</v>
       </c>
-      <c r="F54" s="38" t="s">
+      <c r="G54" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38" t="s">
+      <c r="H54" s="38"/>
+      <c r="I54" s="38" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="99" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="B55" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="C55" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="81" t="s">
+      <c r="D55" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D55" s="84" t="s">
+      <c r="E55" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="104" t="s">
+      <c r="F55" s="103" t="s">
         <v>378</v>
       </c>
-      <c r="F55" s="84" t="s">
+      <c r="G55" s="84" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="99" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="84" t="s">
+        <v>284</v>
+      </c>
+      <c r="B56" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="C56" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="81" t="s">
+      <c r="D56" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D56" s="84" t="s">
+      <c r="E56" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="104" t="s">
+      <c r="F56" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F56" s="84" t="s">
+      <c r="G56" s="84" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="99" t="s">
+    <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="B57" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="C57" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="81" t="s">
+      <c r="D57" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D57" s="84" t="s">
+      <c r="E57" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="E57" s="104" t="s">
+      <c r="F57" s="103" t="s">
         <v>380</v>
       </c>
-      <c r="F57" s="84" t="s">
+      <c r="G57" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="H57" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="99" t="s">
+    <row r="58" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="C58" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="81" t="s">
+      <c r="D58" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D58" s="84" t="s">
+      <c r="E58" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="E58" s="104" t="s">
+      <c r="F58" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="F58" s="84" t="s">
+      <c r="G58" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="H58" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="99" t="s">
+    <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="B59" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="C59" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="81" t="s">
+      <c r="D59" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D59" s="84" t="s">
+      <c r="E59" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="E59" s="105"/>
-      <c r="F59" s="84" t="s">
+      <c r="F59" s="104" t="s">
+        <v>434</v>
+      </c>
+      <c r="G59" s="84" t="s">
         <v>299</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="H59" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="99" t="s">
+    <row r="60" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="B60" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="93" t="s">
+      <c r="C60" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="96" t="s">
+      <c r="D60" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="97" t="s">
+      <c r="E60" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="105"/>
-      <c r="F60" s="97" t="s">
+      <c r="F60" s="104" t="s">
+        <v>435</v>
+      </c>
+      <c r="G60" s="97" t="s">
         <v>300</v>
       </c>
-      <c r="G60" s="93" t="s">
+      <c r="H60" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="H60" s="93"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="99" t="s">
+      <c r="I60" s="93"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="C61" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="81" t="s">
+      <c r="D61" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D61" s="85" t="s">
+      <c r="E61" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="E61" s="104" t="s">
+      <c r="F61" s="103" t="s">
         <v>382</v>
       </c>
-      <c r="F61" s="38" t="s">
+      <c r="G61" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="G61" s="38"/>
       <c r="H61" s="38"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="99" t="s">
+      <c r="I61" s="38"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="C62" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="81" t="s">
+      <c r="D62" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D62" s="85" t="s">
+      <c r="E62" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="E62" s="104" t="s">
+      <c r="F62" s="103" t="s">
         <v>383</v>
       </c>
-      <c r="F62" s="85" t="s">
+      <c r="G62" s="85" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="99" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="85" t="s">
+        <v>411</v>
+      </c>
+      <c r="B63" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="C63" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="81" t="s">
+      <c r="D63" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D63" s="85" t="s">
+      <c r="E63" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="E63" s="104" t="s">
+      <c r="F63" s="103" t="s">
         <v>384</v>
       </c>
-      <c r="F63" s="85" t="s">
+      <c r="G63" s="85" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="99" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="85" t="s">
+        <v>412</v>
+      </c>
+      <c r="B64" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="C64" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="81" t="s">
+      <c r="D64" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D64" s="85" t="s">
+      <c r="E64" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="104" t="s">
+      <c r="F64" s="103" t="s">
         <v>385</v>
       </c>
-      <c r="F64" s="85" t="s">
+      <c r="G64" s="85" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="99" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="B65" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="C65" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="81" t="s">
+      <c r="D65" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D65" s="85" t="s">
+      <c r="E65" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="E65" s="104" t="s">
+      <c r="F65" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="F65" s="85" t="s">
+      <c r="G65" s="85" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="99" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="85" t="s">
+        <v>414</v>
+      </c>
+      <c r="B66" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="C66" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="90" t="s">
+      <c r="D66" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="D66" s="88" t="s">
+      <c r="E66" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="E66" s="104" t="s">
+      <c r="F66" s="103" t="s">
         <v>387</v>
       </c>
-      <c r="F66" s="88" t="s">
+      <c r="G66" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="89"/>
-    </row>
-    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="99" t="s">
+      <c r="H66" s="23"/>
+      <c r="I66" s="89"/>
+    </row>
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="84" t="s">
+        <v>415</v>
+      </c>
+      <c r="B67" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="C67" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="81" t="s">
+      <c r="D67" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="84" t="s">
+      <c r="E67" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="E67" s="104" t="s">
+      <c r="F67" s="103" t="s">
         <v>388</v>
       </c>
-      <c r="F67" s="38" t="s">
+      <c r="G67" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="G67" s="38"/>
-    </row>
-    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="99" t="s">
+      <c r="H67" s="38"/>
+    </row>
+    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="84" t="s">
+        <v>416</v>
+      </c>
+      <c r="B68" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="C68" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="81" t="s">
+      <c r="D68" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D68" s="84" t="s">
+      <c r="E68" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="E68" s="104" t="s">
+      <c r="F68" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="F68" s="84" t="s">
+      <c r="G68" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="G68" s="22" t="s">
+      <c r="H68" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="99" t="s">
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="84" t="s">
+        <v>417</v>
+      </c>
+      <c r="B69" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="C69" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="81" t="s">
+      <c r="D69" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D69" s="84" t="s">
+      <c r="E69" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="E69" s="104" t="s">
+      <c r="F69" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="F69" s="84" t="s">
+      <c r="G69" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="H69" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="99" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="84" t="s">
+        <v>418</v>
+      </c>
+      <c r="B70" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="C70" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="81" t="s">
+      <c r="D70" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D70" s="84" t="s">
+      <c r="E70" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="104" t="s">
+      <c r="F70" s="103" t="s">
         <v>391</v>
       </c>
-      <c r="F70" s="84" t="s">
+      <c r="G70" s="84" t="s">
         <v>311</v>
       </c>
-      <c r="G70" s="22" t="s">
+      <c r="H70" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="99" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="84" t="s">
+        <v>419</v>
+      </c>
+      <c r="B71" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="93" t="s">
+      <c r="C71" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="96" t="s">
+      <c r="D71" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="D71" s="97" t="s">
+      <c r="E71" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="104" t="s">
+      <c r="F71" s="103" t="s">
         <v>392</v>
       </c>
-      <c r="F71" s="97" t="s">
+      <c r="G71" s="97" t="s">
         <v>312</v>
       </c>
-      <c r="G71" s="93" t="s">
+      <c r="H71" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="H71" s="93"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="99" t="s">
+      <c r="I71" s="93"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="C72" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="81" t="s">
+      <c r="D72" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D72" s="85" t="s">
+      <c r="E72" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="104" t="s">
+      <c r="F72" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="F72" s="38" t="s">
+      <c r="G72" s="38" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="99" t="s">
+    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="85" t="s">
+        <v>421</v>
+      </c>
+      <c r="B73" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="C73" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="81" t="s">
+      <c r="D73" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D73" s="85" t="s">
+      <c r="E73" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="E73" s="104" t="s">
+      <c r="F73" s="103" t="s">
         <v>393</v>
       </c>
-      <c r="F73" s="85" t="s">
+      <c r="G73" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="G73" s="22" t="s">
+      <c r="H73" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="99" t="s">
+    <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="85" t="s">
+        <v>422</v>
+      </c>
+      <c r="B74" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="C74" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="81" t="s">
+      <c r="D74" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D74" s="85" t="s">
+      <c r="E74" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="104" t="s">
+      <c r="F74" s="103" t="s">
         <v>394</v>
       </c>
-      <c r="F74" s="85" t="s">
+      <c r="G74" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="G74" s="22" t="s">
+      <c r="H74" s="22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="99" t="s">
+    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="85" t="s">
+        <v>423</v>
+      </c>
+      <c r="B75" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="66" t="s">
+      <c r="C75" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C75" s="81" t="s">
+      <c r="D75" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D75" s="86" t="s">
+      <c r="E75" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="E75" s="104" t="s">
+      <c r="F75" s="103" t="s">
         <v>395</v>
       </c>
-      <c r="F75" s="86" t="s">
+      <c r="G75" s="86" t="s">
         <v>313</v>
       </c>
-      <c r="G75" s="66" t="s">
+      <c r="H75" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H75" s="66"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="100" t="s">
+      <c r="I75" s="66"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="C76" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="81" t="s">
+      <c r="D76" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="104" t="s">
+      <c r="F76" s="103" t="s">
         <v>396</v>
       </c>
-      <c r="F76" s="38" t="s">
+      <c r="G76" s="38" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="100" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="85" t="s">
+        <v>425</v>
+      </c>
+      <c r="B77" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="C77" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="81" t="s">
+      <c r="D77" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D77" s="85" t="s">
+      <c r="E77" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="E77" s="104" t="s">
+      <c r="F77" s="103" t="s">
         <v>397</v>
       </c>
-      <c r="F77" s="85" t="s">
+      <c r="G77" s="85" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="100" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="B78" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="C78" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="81" t="s">
+      <c r="D78" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="E78" s="104" t="s">
+      <c r="F78" s="103" t="s">
         <v>398</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="G78" s="22" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="100" t="s">
+    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="B79" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="66" t="s">
+      <c r="C79" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="81" t="s">
+      <c r="D79" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D79" s="66"/>
-      <c r="E79" s="104" t="s">
+      <c r="E79" s="66"/>
+      <c r="F79" s="103" t="s">
         <v>399</v>
       </c>
-      <c r="F79" s="66" t="s">
+      <c r="G79" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="G79" s="66"/>
       <c r="H79" s="66"/>
-    </row>
-    <row r="80" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="101" t="s">
+      <c r="I79" s="66"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="B80" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="C80" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="81" t="s">
+      <c r="D80" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="E80" s="104" t="s">
+      <c r="F80" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="F80" s="38" t="s">
+      <c r="G80" s="38" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="101" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B81" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="C81" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="81" t="s">
+      <c r="D81" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="E81" s="104" t="s">
+      <c r="F81" s="103" t="s">
         <v>401</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="G81" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="G81" s="64"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="101" t="s">
+      <c r="H81" s="64"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="83" t="s">
+        <v>430</v>
+      </c>
+      <c r="B82" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B82" s="89" t="s">
+      <c r="C82" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="90" t="s">
+      <c r="D82" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="D82" s="89"/>
-      <c r="E82" s="104" t="s">
+      <c r="E82" s="89"/>
+      <c r="F82" s="103" t="s">
         <v>402</v>
       </c>
-      <c r="F82" s="89" t="s">
+      <c r="G82" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="G82" s="98"/>
-      <c r="H82" s="89"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="101" t="s">
+      <c r="H82" s="98"/>
+      <c r="I82" s="89"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="84" t="s">
+        <v>431</v>
+      </c>
+      <c r="B83" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="C83" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C83" s="81" t="s">
+      <c r="D83" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D83" s="84" t="s">
+      <c r="E83" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="E83" s="104" t="s">
+      <c r="F83" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="F83" s="38" t="s">
+      <c r="G83" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="G83" s="64"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="101" t="s">
+      <c r="H83" s="64"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="84" t="s">
+        <v>432</v>
+      </c>
+      <c r="B84" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="C84" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C84" s="81" t="s">
+      <c r="D84" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D84" s="84" t="s">
+      <c r="E84" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="E84" s="104" t="s">
+      <c r="F84" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="F84" s="84" t="s">
+      <c r="G84" s="84" t="s">
         <v>324</v>
       </c>
-      <c r="G84" s="63" t="s">
+      <c r="H84" s="63" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="101" t="s">
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="109" t="s">
+        <v>433</v>
+      </c>
+      <c r="B85" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="B85" s="66" t="s">
+      <c r="C85" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="C85" s="82" t="s">
+      <c r="D85" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="D85" s="87" t="s">
+      <c r="E85" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="E85" s="104" t="s">
+      <c r="F85" s="103" t="s">
         <v>374</v>
       </c>
-      <c r="F85" s="87" t="s">
+      <c r="G85" s="87" t="s">
         <v>325</v>
       </c>
-      <c r="G85" s="69" t="s">
+      <c r="H85" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="H85" s="66"/>
-    </row>
-    <row r="86" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G86" s="64"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G87" s="64"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="83"/>
+      <c r="I85" s="66"/>
+    </row>
+    <row r="86" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H86" s="64"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H87" s="64"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6375,10 +6753,10 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
@@ -6439,10 +6817,10 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="102"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="10" t="s">
         <v>18</v>
       </c>
@@ -6491,10 +6869,10 @@
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="102"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="10" t="s">
         <v>51</v>
       </c>
@@ -6541,10 +6919,10 @@
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="102"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="12" t="s">
         <v>60</v>
       </c>
